--- a/Example_Step_Test_Data_30s.xlsx
+++ b/Example_Step_Test_Data_30s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\OneDrive\Desktop\SpoWi\MetabolicAnalytics-Apps.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E6B4FE24-0D61-419B-98A0-E56845BBD45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD1145-AA9F-4047-AFD5-680593C75D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{BFBCE287-4C3C-40B5-8698-7A0A05414920}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>V_O2</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>t_s_VO_2</t>
+  </si>
+  <si>
+    <t>t_s</t>
+  </si>
+  <si>
+    <t>power</t>
   </si>
 </sst>
 </file>
@@ -95,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15638,10 +15643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF502CF-84FB-44A4-9D4F-A224500AA8AF}">
-  <dimension ref="A1:H723"/>
+  <dimension ref="A1:K723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -15649,7 +15654,7 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15662,10 +15667,10 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
@@ -15674,8 +15679,14 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.8000000000001819</v>
       </c>
@@ -15700,8 +15711,14 @@
       <c r="H2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.7000000000000455</v>
       </c>
@@ -15726,8 +15743,14 @@
       <c r="H3">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8.2000000000002728</v>
       </c>
@@ -15752,8 +15775,14 @@
       <c r="H4">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11.899999999999864</v>
       </c>
@@ -15778,8 +15807,14 @@
       <c r="H5">
         <v>6.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17.000000000000227</v>
       </c>
@@ -15804,8 +15839,14 @@
       <c r="H6">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21.599999999999909</v>
       </c>
@@ -15830,8 +15871,14 @@
       <c r="H7">
         <v>11.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>23.700000000000045</v>
       </c>
@@ -15856,8 +15903,14 @@
       <c r="H8">
         <v>11.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25.500000000000227</v>
       </c>
@@ -15882,8 +15935,14 @@
       <c r="H9">
         <v>10.220000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>27.799999999999955</v>
       </c>
@@ -15908,8 +15967,14 @@
       <c r="H10">
         <v>9.0299999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>120</v>
+      </c>
+      <c r="K10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>30</v>
       </c>
@@ -15934,8 +15999,14 @@
       <c r="H11">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34.400000000000091</v>
       </c>
@@ -15960,8 +16031,14 @@
       <c r="H12">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>150</v>
+      </c>
+      <c r="K12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>36.599999999999909</v>
       </c>
@@ -15986,8 +16063,14 @@
       <c r="H13">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>150</v>
+      </c>
+      <c r="K13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41.099999999999909</v>
       </c>
@@ -16006,8 +16089,14 @@
       <c r="F14">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>180</v>
+      </c>
+      <c r="K14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>43.899999999999864</v>
       </c>
@@ -16026,8 +16115,14 @@
       <c r="F15">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>180</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>47.299999999999955</v>
       </c>
@@ -16046,8 +16141,14 @@
       <c r="F16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>210</v>
+      </c>
+      <c r="K16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
@@ -16066,8 +16167,14 @@
       <c r="F17">
         <v>220</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>210</v>
+      </c>
+      <c r="K17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>52.900000000000091</v>
       </c>
@@ -16086,8 +16193,14 @@
       <c r="F18">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>240</v>
+      </c>
+      <c r="K18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>55.300000000000182</v>
       </c>
@@ -16106,8 +16219,14 @@
       <c r="F19">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>240</v>
+      </c>
+      <c r="K19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>58.200000000000045</v>
       </c>
@@ -16126,8 +16245,14 @@
       <c r="F20">
         <v>240</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>270</v>
+      </c>
+      <c r="K20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>62.599999999999909</v>
       </c>
@@ -16146,8 +16271,14 @@
       <c r="F21">
         <v>260</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>270</v>
+      </c>
+      <c r="K21">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>66.500000000000227</v>
       </c>
@@ -16166,8 +16297,14 @@
       <c r="F22">
         <v>260</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>300</v>
+      </c>
+      <c r="K22">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>68.799999999999955</v>
       </c>
@@ -16186,8 +16323,14 @@
       <c r="F23">
         <v>280</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>300</v>
+      </c>
+      <c r="K23">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>71.200000000000045</v>
       </c>
@@ -16206,8 +16349,14 @@
       <c r="F24">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>330</v>
+      </c>
+      <c r="K24">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>74.000000000000227</v>
       </c>
@@ -16226,8 +16375,14 @@
       <c r="F25">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>330</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>76.5</v>
       </c>
@@ -16246,8 +16401,14 @@
       <c r="F26">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>360</v>
+      </c>
+      <c r="K26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>77.900000000000091</v>
       </c>
@@ -16266,8 +16427,14 @@
       <c r="F27">
         <v>320</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>360</v>
+      </c>
+      <c r="K27">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>78.900000000000091</v>
       </c>
@@ -16286,8 +16453,14 @@
       <c r="F28">
         <v>320</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>390</v>
+      </c>
+      <c r="K28">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>82.100000000000136</v>
       </c>
@@ -16306,8 +16479,14 @@
       <c r="F29">
         <v>340</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>390</v>
+      </c>
+      <c r="K29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>84.800000000000182</v>
       </c>
@@ -16326,8 +16505,14 @@
       <c r="F30">
         <v>340</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>420</v>
+      </c>
+      <c r="K30">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>87.099999999999909</v>
       </c>
@@ -16346,8 +16531,14 @@
       <c r="F31">
         <v>360</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>420</v>
+      </c>
+      <c r="K31">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>89.299999999999955</v>
       </c>
@@ -16366,8 +16557,14 @@
       <c r="F32">
         <v>360</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>450</v>
+      </c>
+      <c r="K32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>91.199999999999818</v>
       </c>
@@ -16386,8 +16583,14 @@
       <c r="F33">
         <v>380</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>450</v>
+      </c>
+      <c r="K33">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>94.200000000000045</v>
       </c>
@@ -16406,8 +16609,14 @@
       <c r="F34">
         <v>380</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>480</v>
+      </c>
+      <c r="K34">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>96.400000000000091</v>
       </c>
@@ -16426,8 +16635,14 @@
       <c r="F35">
         <v>400</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>480</v>
+      </c>
+      <c r="K35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>98.299999999999955</v>
       </c>
@@ -16446,8 +16661,14 @@
       <c r="F36">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>510</v>
+      </c>
+      <c r="K36">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>102.29999999999995</v>
       </c>
@@ -16466,8 +16687,14 @@
       <c r="F37">
         <v>420</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>510</v>
+      </c>
+      <c r="K37">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>105</v>
       </c>
@@ -16486,8 +16713,14 @@
       <c r="F38">
         <v>420</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>540</v>
+      </c>
+      <c r="K38">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>110.60000000000014</v>
       </c>
@@ -16506,8 +16739,14 @@
       <c r="F39">
         <v>440</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>540</v>
+      </c>
+      <c r="K39">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>113.70000000000005</v>
       </c>
@@ -16526,8 +16765,14 @@
       <c r="F40">
         <v>440</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>570</v>
+      </c>
+      <c r="K40">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>116.60000000000014</v>
       </c>
@@ -16546,8 +16791,14 @@
       <c r="F41">
         <v>460</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>570</v>
+      </c>
+      <c r="K41">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>119.00000000000023</v>
       </c>
@@ -16566,8 +16817,14 @@
       <c r="F42">
         <v>460</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>600</v>
+      </c>
+      <c r="K42">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>121.69999999999982</v>
       </c>
@@ -16586,8 +16843,14 @@
       <c r="F43">
         <v>480</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>600</v>
+      </c>
+      <c r="K43">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>124.5</v>
       </c>
@@ -16606,8 +16869,14 @@
       <c r="F44">
         <v>480</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>630</v>
+      </c>
+      <c r="K44">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>128.20000000000005</v>
       </c>
@@ -16626,8 +16895,14 @@
       <c r="F45">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>630</v>
+      </c>
+      <c r="K45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>131.09999999999991</v>
       </c>
@@ -16646,8 +16921,14 @@
       <c r="F46">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>660</v>
+      </c>
+      <c r="K46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>133.79999999999995</v>
       </c>
@@ -16666,8 +16947,14 @@
       <c r="F47">
         <v>520</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>660</v>
+      </c>
+      <c r="K47">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>136.50000000000023</v>
       </c>
@@ -16686,8 +16973,14 @@
       <c r="F48">
         <v>520</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>672.7</v>
+      </c>
+      <c r="K48">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>139.40000000000009</v>
       </c>
@@ -16706,8 +16999,14 @@
       <c r="F49">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>672.7</v>
+      </c>
+      <c r="K49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>141.80000000000018</v>
       </c>
@@ -16726,8 +17025,14 @@
       <c r="F50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>1313.2</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>144.39999999999986</v>
       </c>
@@ -16741,7 +17046,7 @@
         <v>111.26666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>146.70000000000005</v>
       </c>
@@ -16755,7 +17060,7 @@
         <v>111.8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>149.70000000000005</v>
       </c>
@@ -16769,7 +17074,7 @@
         <v>112.33333333333333</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>152</v>
       </c>
@@ -16783,7 +17088,7 @@
         <v>112.73333333333333</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>154.60000000000014</v>
       </c>
@@ -16797,7 +17102,7 @@
         <v>112.86666666666666</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>157.90000000000009</v>
       </c>
@@ -16811,7 +17116,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>160.59999999999991</v>
       </c>
@@ -16825,7 +17130,7 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>163.50000000000023</v>
       </c>
@@ -16839,7 +17144,7 @@
         <v>113.46666666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>166.20000000000005</v>
       </c>
@@ -16853,7 +17158,7 @@
         <v>113.8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>169</v>
       </c>
@@ -16867,7 +17172,7 @@
         <v>114.13333333333334</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>171.70000000000005</v>
       </c>
@@ -16881,7 +17186,7 @@
         <v>114.46666666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>174.60000000000014</v>
       </c>
@@ -16895,7 +17200,7 @@
         <v>114.8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>177.19999999999982</v>
       </c>
@@ -16909,7 +17214,7 @@
         <v>115.06666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>179.59999999999991</v>
       </c>
